--- a/設計/データベース設計/01_データベース設計書.xlsx
+++ b/設計/データベース設計/01_データベース設計書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JOB\授業\2020年度\前期\3年Web\設計書ひな形\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/student_dontneed_shop/設計/データベース設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF9FE2-0C24-A143-BBDD-488EFE934319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>西野　直幸</author>
   </authors>
   <commentList>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -493,11 +494,121 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>システム設計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ER001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原田遼汰</t>
+    <rPh sb="0" eb="4">
+      <t>ハラダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報を定義</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会員</t>
+    <rPh sb="0" eb="2">
+      <t>カイイn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品情報を定義</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入明細</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>particular</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入明細情報を定義</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者情報を定義</t>
+    <rPh sb="0" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">カート </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カート情報を定義</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -1905,13 +2016,94 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1932,86 +2124,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2031,10 +2148,25 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2043,110 +2175,98 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2174,15 +2294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2196,11 +2307,11 @@
     <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準_Sheet1" xfId="4"/>
-    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3"/>
-    <cellStyle name="標準_システム管理" xfId="2"/>
-    <cellStyle name="標準_種別マスタ" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1_詳細設計書テンプレート" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準_システム管理" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準_種別マスタ" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
@@ -2300,6 +2411,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2335,6 +2463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2510,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2520,201 +2665,201 @@
       <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
-    <col min="7" max="29" width="4.125" style="12" customWidth="1"/>
-    <col min="30" max="32" width="4.125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
+    <col min="7" max="29" width="4.1640625" style="12" customWidth="1"/>
+    <col min="30" max="32" width="4.1640625" style="19" customWidth="1"/>
     <col min="33" max="36" width="4" style="12" customWidth="1"/>
     <col min="37" max="256" width="9" style="12"/>
-    <col min="257" max="288" width="4.125" style="12" customWidth="1"/>
+    <col min="257" max="288" width="4.1640625" style="12" customWidth="1"/>
     <col min="289" max="292" width="4" style="12" customWidth="1"/>
     <col min="293" max="512" width="9" style="12"/>
-    <col min="513" max="544" width="4.125" style="12" customWidth="1"/>
+    <col min="513" max="544" width="4.1640625" style="12" customWidth="1"/>
     <col min="545" max="548" width="4" style="12" customWidth="1"/>
     <col min="549" max="768" width="9" style="12"/>
-    <col min="769" max="800" width="4.125" style="12" customWidth="1"/>
+    <col min="769" max="800" width="4.1640625" style="12" customWidth="1"/>
     <col min="801" max="804" width="4" style="12" customWidth="1"/>
     <col min="805" max="1024" width="9" style="12"/>
-    <col min="1025" max="1056" width="4.125" style="12" customWidth="1"/>
+    <col min="1025" max="1056" width="4.1640625" style="12" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="12" customWidth="1"/>
     <col min="1061" max="1280" width="9" style="12"/>
-    <col min="1281" max="1312" width="4.125" style="12" customWidth="1"/>
+    <col min="1281" max="1312" width="4.1640625" style="12" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="12" customWidth="1"/>
     <col min="1317" max="1536" width="9" style="12"/>
-    <col min="1537" max="1568" width="4.125" style="12" customWidth="1"/>
+    <col min="1537" max="1568" width="4.1640625" style="12" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="12" customWidth="1"/>
     <col min="1573" max="1792" width="9" style="12"/>
-    <col min="1793" max="1824" width="4.125" style="12" customWidth="1"/>
+    <col min="1793" max="1824" width="4.1640625" style="12" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="12" customWidth="1"/>
     <col min="1829" max="2048" width="9" style="12"/>
-    <col min="2049" max="2080" width="4.125" style="12" customWidth="1"/>
+    <col min="2049" max="2080" width="4.1640625" style="12" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="12" customWidth="1"/>
     <col min="2085" max="2304" width="9" style="12"/>
-    <col min="2305" max="2336" width="4.125" style="12" customWidth="1"/>
+    <col min="2305" max="2336" width="4.1640625" style="12" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="12" customWidth="1"/>
     <col min="2341" max="2560" width="9" style="12"/>
-    <col min="2561" max="2592" width="4.125" style="12" customWidth="1"/>
+    <col min="2561" max="2592" width="4.1640625" style="12" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="12" customWidth="1"/>
     <col min="2597" max="2816" width="9" style="12"/>
-    <col min="2817" max="2848" width="4.125" style="12" customWidth="1"/>
+    <col min="2817" max="2848" width="4.1640625" style="12" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="12" customWidth="1"/>
     <col min="2853" max="3072" width="9" style="12"/>
-    <col min="3073" max="3104" width="4.125" style="12" customWidth="1"/>
+    <col min="3073" max="3104" width="4.1640625" style="12" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="12" customWidth="1"/>
     <col min="3109" max="3328" width="9" style="12"/>
-    <col min="3329" max="3360" width="4.125" style="12" customWidth="1"/>
+    <col min="3329" max="3360" width="4.1640625" style="12" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="12" customWidth="1"/>
     <col min="3365" max="3584" width="9" style="12"/>
-    <col min="3585" max="3616" width="4.125" style="12" customWidth="1"/>
+    <col min="3585" max="3616" width="4.1640625" style="12" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="12" customWidth="1"/>
     <col min="3621" max="3840" width="9" style="12"/>
-    <col min="3841" max="3872" width="4.125" style="12" customWidth="1"/>
+    <col min="3841" max="3872" width="4.1640625" style="12" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="12" customWidth="1"/>
     <col min="3877" max="4096" width="9" style="12"/>
-    <col min="4097" max="4128" width="4.125" style="12" customWidth="1"/>
+    <col min="4097" max="4128" width="4.1640625" style="12" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="12" customWidth="1"/>
     <col min="4133" max="4352" width="9" style="12"/>
-    <col min="4353" max="4384" width="4.125" style="12" customWidth="1"/>
+    <col min="4353" max="4384" width="4.1640625" style="12" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="12" customWidth="1"/>
     <col min="4389" max="4608" width="9" style="12"/>
-    <col min="4609" max="4640" width="4.125" style="12" customWidth="1"/>
+    <col min="4609" max="4640" width="4.1640625" style="12" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="12" customWidth="1"/>
     <col min="4645" max="4864" width="9" style="12"/>
-    <col min="4865" max="4896" width="4.125" style="12" customWidth="1"/>
+    <col min="4865" max="4896" width="4.1640625" style="12" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="12" customWidth="1"/>
     <col min="4901" max="5120" width="9" style="12"/>
-    <col min="5121" max="5152" width="4.125" style="12" customWidth="1"/>
+    <col min="5121" max="5152" width="4.1640625" style="12" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="12" customWidth="1"/>
     <col min="5157" max="5376" width="9" style="12"/>
-    <col min="5377" max="5408" width="4.125" style="12" customWidth="1"/>
+    <col min="5377" max="5408" width="4.1640625" style="12" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="12" customWidth="1"/>
     <col min="5413" max="5632" width="9" style="12"/>
-    <col min="5633" max="5664" width="4.125" style="12" customWidth="1"/>
+    <col min="5633" max="5664" width="4.1640625" style="12" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="12" customWidth="1"/>
     <col min="5669" max="5888" width="9" style="12"/>
-    <col min="5889" max="5920" width="4.125" style="12" customWidth="1"/>
+    <col min="5889" max="5920" width="4.1640625" style="12" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="12" customWidth="1"/>
     <col min="5925" max="6144" width="9" style="12"/>
-    <col min="6145" max="6176" width="4.125" style="12" customWidth="1"/>
+    <col min="6145" max="6176" width="4.1640625" style="12" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="12" customWidth="1"/>
     <col min="6181" max="6400" width="9" style="12"/>
-    <col min="6401" max="6432" width="4.125" style="12" customWidth="1"/>
+    <col min="6401" max="6432" width="4.1640625" style="12" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="12" customWidth="1"/>
     <col min="6437" max="6656" width="9" style="12"/>
-    <col min="6657" max="6688" width="4.125" style="12" customWidth="1"/>
+    <col min="6657" max="6688" width="4.1640625" style="12" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="12" customWidth="1"/>
     <col min="6693" max="6912" width="9" style="12"/>
-    <col min="6913" max="6944" width="4.125" style="12" customWidth="1"/>
+    <col min="6913" max="6944" width="4.1640625" style="12" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="12" customWidth="1"/>
     <col min="6949" max="7168" width="9" style="12"/>
-    <col min="7169" max="7200" width="4.125" style="12" customWidth="1"/>
+    <col min="7169" max="7200" width="4.1640625" style="12" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="12" customWidth="1"/>
     <col min="7205" max="7424" width="9" style="12"/>
-    <col min="7425" max="7456" width="4.125" style="12" customWidth="1"/>
+    <col min="7425" max="7456" width="4.1640625" style="12" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="12" customWidth="1"/>
     <col min="7461" max="7680" width="9" style="12"/>
-    <col min="7681" max="7712" width="4.125" style="12" customWidth="1"/>
+    <col min="7681" max="7712" width="4.1640625" style="12" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="12" customWidth="1"/>
     <col min="7717" max="7936" width="9" style="12"/>
-    <col min="7937" max="7968" width="4.125" style="12" customWidth="1"/>
+    <col min="7937" max="7968" width="4.1640625" style="12" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="12" customWidth="1"/>
     <col min="7973" max="8192" width="9" style="12"/>
-    <col min="8193" max="8224" width="4.125" style="12" customWidth="1"/>
+    <col min="8193" max="8224" width="4.1640625" style="12" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="12" customWidth="1"/>
     <col min="8229" max="8448" width="9" style="12"/>
-    <col min="8449" max="8480" width="4.125" style="12" customWidth="1"/>
+    <col min="8449" max="8480" width="4.1640625" style="12" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="12" customWidth="1"/>
     <col min="8485" max="8704" width="9" style="12"/>
-    <col min="8705" max="8736" width="4.125" style="12" customWidth="1"/>
+    <col min="8705" max="8736" width="4.1640625" style="12" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="12" customWidth="1"/>
     <col min="8741" max="8960" width="9" style="12"/>
-    <col min="8961" max="8992" width="4.125" style="12" customWidth="1"/>
+    <col min="8961" max="8992" width="4.1640625" style="12" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="12" customWidth="1"/>
     <col min="8997" max="9216" width="9" style="12"/>
-    <col min="9217" max="9248" width="4.125" style="12" customWidth="1"/>
+    <col min="9217" max="9248" width="4.1640625" style="12" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="12" customWidth="1"/>
     <col min="9253" max="9472" width="9" style="12"/>
-    <col min="9473" max="9504" width="4.125" style="12" customWidth="1"/>
+    <col min="9473" max="9504" width="4.1640625" style="12" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="12" customWidth="1"/>
     <col min="9509" max="9728" width="9" style="12"/>
-    <col min="9729" max="9760" width="4.125" style="12" customWidth="1"/>
+    <col min="9729" max="9760" width="4.1640625" style="12" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="12" customWidth="1"/>
     <col min="9765" max="9984" width="9" style="12"/>
-    <col min="9985" max="10016" width="4.125" style="12" customWidth="1"/>
+    <col min="9985" max="10016" width="4.1640625" style="12" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="12" customWidth="1"/>
     <col min="10021" max="10240" width="9" style="12"/>
-    <col min="10241" max="10272" width="4.125" style="12" customWidth="1"/>
+    <col min="10241" max="10272" width="4.1640625" style="12" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="12" customWidth="1"/>
     <col min="10277" max="10496" width="9" style="12"/>
-    <col min="10497" max="10528" width="4.125" style="12" customWidth="1"/>
+    <col min="10497" max="10528" width="4.1640625" style="12" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="12" customWidth="1"/>
     <col min="10533" max="10752" width="9" style="12"/>
-    <col min="10753" max="10784" width="4.125" style="12" customWidth="1"/>
+    <col min="10753" max="10784" width="4.1640625" style="12" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="12" customWidth="1"/>
     <col min="10789" max="11008" width="9" style="12"/>
-    <col min="11009" max="11040" width="4.125" style="12" customWidth="1"/>
+    <col min="11009" max="11040" width="4.1640625" style="12" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="12" customWidth="1"/>
     <col min="11045" max="11264" width="9" style="12"/>
-    <col min="11265" max="11296" width="4.125" style="12" customWidth="1"/>
+    <col min="11265" max="11296" width="4.1640625" style="12" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="12" customWidth="1"/>
     <col min="11301" max="11520" width="9" style="12"/>
-    <col min="11521" max="11552" width="4.125" style="12" customWidth="1"/>
+    <col min="11521" max="11552" width="4.1640625" style="12" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="12" customWidth="1"/>
     <col min="11557" max="11776" width="9" style="12"/>
-    <col min="11777" max="11808" width="4.125" style="12" customWidth="1"/>
+    <col min="11777" max="11808" width="4.1640625" style="12" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="12" customWidth="1"/>
     <col min="11813" max="12032" width="9" style="12"/>
-    <col min="12033" max="12064" width="4.125" style="12" customWidth="1"/>
+    <col min="12033" max="12064" width="4.1640625" style="12" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="12" customWidth="1"/>
     <col min="12069" max="12288" width="9" style="12"/>
-    <col min="12289" max="12320" width="4.125" style="12" customWidth="1"/>
+    <col min="12289" max="12320" width="4.1640625" style="12" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="12" customWidth="1"/>
     <col min="12325" max="12544" width="9" style="12"/>
-    <col min="12545" max="12576" width="4.125" style="12" customWidth="1"/>
+    <col min="12545" max="12576" width="4.1640625" style="12" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="12" customWidth="1"/>
     <col min="12581" max="12800" width="9" style="12"/>
-    <col min="12801" max="12832" width="4.125" style="12" customWidth="1"/>
+    <col min="12801" max="12832" width="4.1640625" style="12" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="12" customWidth="1"/>
     <col min="12837" max="13056" width="9" style="12"/>
-    <col min="13057" max="13088" width="4.125" style="12" customWidth="1"/>
+    <col min="13057" max="13088" width="4.1640625" style="12" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="12" customWidth="1"/>
     <col min="13093" max="13312" width="9" style="12"/>
-    <col min="13313" max="13344" width="4.125" style="12" customWidth="1"/>
+    <col min="13313" max="13344" width="4.1640625" style="12" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="12" customWidth="1"/>
     <col min="13349" max="13568" width="9" style="12"/>
-    <col min="13569" max="13600" width="4.125" style="12" customWidth="1"/>
+    <col min="13569" max="13600" width="4.1640625" style="12" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="12" customWidth="1"/>
     <col min="13605" max="13824" width="9" style="12"/>
-    <col min="13825" max="13856" width="4.125" style="12" customWidth="1"/>
+    <col min="13825" max="13856" width="4.1640625" style="12" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="12" customWidth="1"/>
     <col min="13861" max="14080" width="9" style="12"/>
-    <col min="14081" max="14112" width="4.125" style="12" customWidth="1"/>
+    <col min="14081" max="14112" width="4.1640625" style="12" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="12" customWidth="1"/>
     <col min="14117" max="14336" width="9" style="12"/>
-    <col min="14337" max="14368" width="4.125" style="12" customWidth="1"/>
+    <col min="14337" max="14368" width="4.1640625" style="12" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="12" customWidth="1"/>
     <col min="14373" max="14592" width="9" style="12"/>
-    <col min="14593" max="14624" width="4.125" style="12" customWidth="1"/>
+    <col min="14593" max="14624" width="4.1640625" style="12" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="12" customWidth="1"/>
     <col min="14629" max="14848" width="9" style="12"/>
-    <col min="14849" max="14880" width="4.125" style="12" customWidth="1"/>
+    <col min="14849" max="14880" width="4.1640625" style="12" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="12" customWidth="1"/>
     <col min="14885" max="15104" width="9" style="12"/>
-    <col min="15105" max="15136" width="4.125" style="12" customWidth="1"/>
+    <col min="15105" max="15136" width="4.1640625" style="12" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="12" customWidth="1"/>
     <col min="15141" max="15360" width="9" style="12"/>
-    <col min="15361" max="15392" width="4.125" style="12" customWidth="1"/>
+    <col min="15361" max="15392" width="4.1640625" style="12" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="12" customWidth="1"/>
     <col min="15397" max="15616" width="9" style="12"/>
-    <col min="15617" max="15648" width="4.125" style="12" customWidth="1"/>
+    <col min="15617" max="15648" width="4.1640625" style="12" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="12" customWidth="1"/>
     <col min="15653" max="15872" width="9" style="12"/>
-    <col min="15873" max="15904" width="4.125" style="12" customWidth="1"/>
+    <col min="15873" max="15904" width="4.1640625" style="12" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="12" customWidth="1"/>
     <col min="15909" max="16128" width="9" style="12"/>
-    <col min="16129" max="16160" width="4.125" style="12" customWidth="1"/>
+    <col min="16129" max="16160" width="4.1640625" style="12" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="12" customWidth="1"/>
     <col min="16165" max="16384" width="9" style="12"/>
   </cols>
@@ -2952,19 +3097,19 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="148" t="s">
+      <c r="U3" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="150"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="150"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="165"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3077,20 +3222,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="159" t="s">
+      <c r="F7" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="161"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="151"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -3108,78 +3253,78 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="170"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="160"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="158" t="s">
+      <c r="W8" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158" t="s">
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158" t="s">
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="173"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="163"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="176"/>
-      <c r="Y9" s="177"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="177"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="177"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="169"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="169"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="168"/>
+      <c r="AD9" s="169"/>
+      <c r="AE9" s="170"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3205,15 +3350,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="180"/>
-      <c r="Z10" s="178"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="180"/>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="179"/>
-      <c r="AE10" s="180"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="173"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3239,15 +3384,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="179"/>
-      <c r="Y11" s="180"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="180"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="179"/>
-      <c r="AE11" s="180"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="171"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="173"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3273,15 +3418,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="181"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="181"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="181"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="183"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="175"/>
+      <c r="AB12" s="176"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="176"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3380,106 +3525,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="157"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="157"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3622,390 +3767,390 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="148" t="s">
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="148" t="s">
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="149"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="148" t="s">
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="167"/>
+      <c r="V23" s="167"/>
+      <c r="W23" s="167"/>
+      <c r="X23" s="167"/>
+      <c r="Y23" s="167"/>
+      <c r="Z23" s="167"/>
+      <c r="AA23" s="167"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="150"/>
+      <c r="AD23" s="167"/>
+      <c r="AE23" s="165"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="151">
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="178">
         <v>43767</v>
       </c>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154" t="s">
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="150"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="182"/>
+      <c r="T24" s="182"/>
+      <c r="U24" s="182"/>
+      <c r="V24" s="182"/>
+      <c r="W24" s="182"/>
+      <c r="X24" s="182"/>
+      <c r="Y24" s="182"/>
+      <c r="Z24" s="182"/>
+      <c r="AA24" s="182"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="167"/>
+      <c r="AE24" s="165"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="150"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="182"/>
+      <c r="T25" s="182"/>
+      <c r="U25" s="182"/>
+      <c r="V25" s="182"/>
+      <c r="W25" s="182"/>
+      <c r="X25" s="182"/>
+      <c r="Y25" s="182"/>
+      <c r="Z25" s="182"/>
+      <c r="AA25" s="182"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="167"/>
+      <c r="AE25" s="165"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="150"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="182"/>
+      <c r="T26" s="182"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="182"/>
+      <c r="W26" s="182"/>
+      <c r="X26" s="182"/>
+      <c r="Y26" s="182"/>
+      <c r="Z26" s="182"/>
+      <c r="AA26" s="182"/>
+      <c r="AB26" s="183"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="167"/>
+      <c r="AE26" s="165"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="150"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="182"/>
+      <c r="T27" s="182"/>
+      <c r="U27" s="182"/>
+      <c r="V27" s="182"/>
+      <c r="W27" s="182"/>
+      <c r="X27" s="182"/>
+      <c r="Y27" s="182"/>
+      <c r="Z27" s="182"/>
+      <c r="AA27" s="182"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="167"/>
+      <c r="AE27" s="165"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="150"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="182"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="182"/>
+      <c r="W28" s="182"/>
+      <c r="X28" s="182"/>
+      <c r="Y28" s="182"/>
+      <c r="Z28" s="182"/>
+      <c r="AA28" s="182"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="167"/>
+      <c r="AE28" s="165"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="150"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="182"/>
+      <c r="X29" s="182"/>
+      <c r="Y29" s="182"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="182"/>
+      <c r="AB29" s="183"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="167"/>
+      <c r="AE29" s="165"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="150"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="182"/>
+      <c r="T30" s="182"/>
+      <c r="U30" s="182"/>
+      <c r="V30" s="182"/>
+      <c r="W30" s="182"/>
+      <c r="X30" s="182"/>
+      <c r="Y30" s="182"/>
+      <c r="Z30" s="182"/>
+      <c r="AA30" s="182"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="167"/>
+      <c r="AE30" s="165"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="150"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="182"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="164"/>
+      <c r="AD31" s="167"/>
+      <c r="AE31" s="165"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
-      <c r="P32" s="155"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="150"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="182"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="183"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="167"/>
+      <c r="AE32" s="165"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="150"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="182"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="182"/>
+      <c r="W33" s="182"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="182"/>
+      <c r="Z33" s="182"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="183"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="167"/>
+      <c r="AE33" s="165"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4044,6 +4189,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4055,51 +4245,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4117,28 +4262,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="67" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="134" t="s">
         <v>57</v>
       </c>
@@ -4149,23 +4294,27 @@
       <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="191"/>
+      <c r="B2" s="185"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="146"/>
+      <c r="F2" s="146" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>24</v>
@@ -4173,10 +4322,10 @@
       <c r="F3" s="147"/>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="191"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
@@ -4185,11 +4334,13 @@
       <c r="F4" s="146"/>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
         <v>26</v>
@@ -4197,10 +4348,10 @@
       <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="191"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
@@ -4239,84 +4390,124 @@
       <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="188" t="s">
+      <c r="E9" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="189"/>
+      <c r="F9" s="191"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="68">
         <v>1</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
+      <c r="B10" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="187"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="68">
         <v>2</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
+      <c r="B11" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="186" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="187"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="68">
         <v>3</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="185"/>
+      <c r="B12" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="186" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="187"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="68">
         <v>4</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="185"/>
+      <c r="B13" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="186" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="187"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="68">
         <v>5</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="185"/>
+      <c r="B14" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="186" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="187"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="187"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="189"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="187"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="189"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="187"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="189"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -4778,11 +4969,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -4792,6 +4978,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4805,27 +4996,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="137" t="s">
         <v>58</v>
       </c>
@@ -4898,36 +5089,36 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="218"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="218"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="218"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -4948,10 +5139,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="194" t="s">
+      <c r="C10" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="195"/>
+      <c r="D10" s="196"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -4968,8 +5159,8 @@
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="70"/>
       <c r="B11" s="71"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
       <c r="G11" s="73"/>
@@ -5038,8 +5229,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="193"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="200"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -5048,8 +5239,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="200"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -5058,8 +5249,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="193"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -5068,8 +5259,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="193"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -5078,8 +5269,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="193"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="200"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -5088,8 +5279,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="193"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -5098,8 +5289,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="193"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="200"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -5108,8 +5299,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="200"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -5118,8 +5309,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="193"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="200"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -5128,8 +5319,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="193"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="200"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -5138,8 +5329,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="200"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -5148,8 +5339,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="193"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="200"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -5158,8 +5349,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="84"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="211"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -5191,10 +5382,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="199" t="s">
+      <c r="B33" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="213"/>
+      <c r="C33" s="209"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -5209,51 +5400,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="219"/>
-      <c r="C34" s="220"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="202"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="211"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="214"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="221"/>
-      <c r="C35" s="222"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="202"/>
       <c r="D35" s="203"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="205"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="221"/>
-      <c r="C36" s="222"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
       <c r="D36" s="203"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="205"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="221"/>
-      <c r="C37" s="222"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="202"/>
       <c r="D37" s="203"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="205"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="223"/>
-      <c r="C38" s="224"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="210"/>
-      <c r="F38" s="211"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="207"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -5286,15 +5477,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="199" t="s">
+      <c r="C41" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="212"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="199" t="s">
+      <c r="D41" s="218"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="200"/>
+      <c r="G41" s="219"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -5302,51 +5493,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="208"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="222"/>
       <c r="H42" s="105"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="106"/>
       <c r="B43" s="107"/>
-      <c r="C43" s="226"/>
-      <c r="D43" s="227"/>
-      <c r="E43" s="228"/>
-      <c r="F43" s="226"/>
-      <c r="G43" s="228"/>
+      <c r="C43" s="223"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="223"/>
+      <c r="G43" s="225"/>
       <c r="H43" s="108"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
       <c r="C44" s="203"/>
-      <c r="D44" s="215"/>
-      <c r="E44" s="204"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="205"/>
       <c r="F44" s="203"/>
-      <c r="G44" s="204"/>
+      <c r="G44" s="205"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
       <c r="C45" s="203"/>
-      <c r="D45" s="215"/>
-      <c r="E45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="205"/>
       <c r="F45" s="203"/>
-      <c r="G45" s="204"/>
+      <c r="G45" s="205"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="210"/>
-      <c r="E46" s="211"/>
-      <c r="F46" s="205"/>
-      <c r="G46" s="206"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="227"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5378,15 +5569,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="199" t="s">
+      <c r="C49" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="212"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="194" t="s">
+      <c r="D49" s="218"/>
+      <c r="E49" s="209"/>
+      <c r="F49" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="198"/>
+      <c r="G49" s="228"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -5394,67 +5585,83 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="225"/>
-      <c r="E50" s="202"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="202"/>
+      <c r="C50" s="212"/>
+      <c r="D50" s="213"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="214"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
       <c r="C51" s="203"/>
-      <c r="D51" s="215"/>
-      <c r="E51" s="204"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="205"/>
       <c r="F51" s="203"/>
-      <c r="G51" s="204"/>
+      <c r="G51" s="205"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
       <c r="C52" s="203"/>
-      <c r="D52" s="215"/>
-      <c r="E52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="205"/>
       <c r="F52" s="203"/>
-      <c r="G52" s="204"/>
+      <c r="G52" s="205"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
       <c r="C53" s="203"/>
-      <c r="D53" s="215"/>
-      <c r="E53" s="204"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="205"/>
       <c r="F53" s="203"/>
-      <c r="G53" s="204"/>
+      <c r="G53" s="205"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="209"/>
-      <c r="D54" s="210"/>
-      <c r="E54" s="211"/>
-      <c r="F54" s="205"/>
-      <c r="G54" s="206"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="207"/>
+      <c r="F54" s="226"/>
+      <c r="G54" s="227"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -5468,34 +5675,18 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5510,7 +5701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5520,14 +5711,14 @@
       <selection activeCell="C11" sqref="C11:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.125" customWidth="1"/>
+    <col min="3" max="12" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="140" t="s">
         <v>52</v>
       </c>
@@ -5562,8 +5753,8 @@
       <c r="K2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="232"/>
-      <c r="M2" s="233"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="236"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="114" t="s">
@@ -5583,8 +5774,8 @@
       <c r="K3" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="234"/>
-      <c r="M3" s="233"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="236"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="110" t="s">
@@ -5602,8 +5793,8 @@
       <c r="K4" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="234"/>
-      <c r="M4" s="233"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="236"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -5675,14 +5866,14 @@
       <c r="D9" s="122"/>
       <c r="E9" s="122"/>
       <c r="F9" s="123"/>
-      <c r="G9" s="235" t="s">
+      <c r="G9" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="237"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="240"/>
       <c r="M9" s="121"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -5712,13 +5903,13 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="119"/>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="229" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="229"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="231"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="234"/>
       <c r="G11" s="127"/>
       <c r="H11" s="127"/>
       <c r="I11" s="127"/>
@@ -5729,11 +5920,11 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="119"/>
-      <c r="B12" s="239"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="231"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="234"/>
       <c r="G12" s="127"/>
       <c r="H12" s="127"/>
       <c r="I12" s="127"/>
@@ -5744,11 +5935,11 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="119"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="231"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="234"/>
       <c r="G13" s="127"/>
       <c r="H13" s="127"/>
       <c r="I13" s="127"/>
@@ -5759,11 +5950,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="119"/>
-      <c r="B14" s="239"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="231"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="234"/>
       <c r="G14" s="127"/>
       <c r="H14" s="127"/>
       <c r="I14" s="127"/>
@@ -5774,11 +5965,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="119"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="229"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="231"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="234"/>
       <c r="G15" s="127"/>
       <c r="H15" s="127"/>
       <c r="I15" s="127"/>
@@ -5789,11 +5980,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="119"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="229"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="231"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="234"/>
       <c r="G16" s="127"/>
       <c r="H16" s="127"/>
       <c r="I16" s="127"/>
@@ -5804,11 +5995,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="119"/>
-      <c r="B17" s="239"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="231"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="234"/>
       <c r="G17" s="127"/>
       <c r="H17" s="127"/>
       <c r="I17" s="127"/>
@@ -5819,11 +6010,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="119"/>
-      <c r="B18" s="239"/>
-      <c r="C18" s="229"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="231"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234"/>
       <c r="G18" s="127"/>
       <c r="H18" s="127"/>
       <c r="I18" s="127"/>
@@ -5834,11 +6025,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="119"/>
-      <c r="B19" s="239"/>
-      <c r="C19" s="229"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="231"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="234"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -5849,11 +6040,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="119"/>
-      <c r="B20" s="239"/>
-      <c r="C20" s="229"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="231"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="234"/>
       <c r="G20" s="127"/>
       <c r="H20" s="127"/>
       <c r="I20" s="127"/>
@@ -5864,11 +6055,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="119"/>
-      <c r="B21" s="239"/>
-      <c r="C21" s="229"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="230"/>
-      <c r="F21" s="231"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="234"/>
       <c r="G21" s="127"/>
       <c r="H21" s="127"/>
       <c r="I21" s="127"/>
@@ -5879,7 +6070,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="119"/>
-      <c r="B22" s="239"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="128"/>
       <c r="D22" s="141"/>
       <c r="E22" s="141"/>
@@ -5894,7 +6085,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="119"/>
-      <c r="B23" s="239"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="128"/>
       <c r="D23" s="141"/>
       <c r="E23" s="141"/>
@@ -5909,7 +6100,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="119"/>
-      <c r="B24" s="239"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="128"/>
       <c r="D24" s="141"/>
       <c r="E24" s="141"/>
@@ -5924,7 +6115,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="119"/>
-      <c r="B25" s="239"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="128"/>
       <c r="D25" s="141"/>
       <c r="E25" s="141"/>
@@ -5939,7 +6130,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="119"/>
-      <c r="B26" s="239"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="128"/>
       <c r="D26" s="141"/>
       <c r="E26" s="141"/>
@@ -5954,7 +6145,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="119"/>
-      <c r="B27" s="239"/>
+      <c r="B27" s="230"/>
       <c r="C27" s="128"/>
       <c r="D27" s="141"/>
       <c r="E27" s="141"/>
@@ -5969,7 +6160,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="119"/>
-      <c r="B28" s="239"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="128"/>
       <c r="D28" s="141"/>
       <c r="E28" s="141"/>
@@ -5984,7 +6175,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="119"/>
-      <c r="B29" s="239"/>
+      <c r="B29" s="230"/>
       <c r="C29" s="128"/>
       <c r="D29" s="141"/>
       <c r="E29" s="141"/>
@@ -5999,7 +6190,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="119"/>
-      <c r="B30" s="239"/>
+      <c r="B30" s="230"/>
       <c r="C30" s="128"/>
       <c r="D30" s="141"/>
       <c r="E30" s="141"/>
@@ -6014,7 +6205,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="119"/>
-      <c r="B31" s="239"/>
+      <c r="B31" s="230"/>
       <c r="C31" s="128"/>
       <c r="D31" s="141"/>
       <c r="E31" s="141"/>
@@ -6029,11 +6220,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="119"/>
-      <c r="B32" s="239"/>
-      <c r="C32" s="229"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="231"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="234"/>
       <c r="G32" s="127"/>
       <c r="H32" s="127"/>
       <c r="I32" s="127"/>
@@ -6044,11 +6235,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="119"/>
-      <c r="B33" s="239"/>
-      <c r="C33" s="229"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="231"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="234"/>
       <c r="G33" s="127"/>
       <c r="H33" s="127"/>
       <c r="I33" s="127"/>
@@ -6059,11 +6250,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="119"/>
-      <c r="B34" s="239"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="230"/>
-      <c r="F34" s="231"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="234"/>
       <c r="G34" s="127"/>
       <c r="H34" s="127"/>
       <c r="I34" s="127"/>
@@ -6074,11 +6265,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="119"/>
-      <c r="B35" s="239"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="234"/>
       <c r="G35" s="127"/>
       <c r="H35" s="127"/>
       <c r="I35" s="127"/>
@@ -6089,11 +6280,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="119"/>
-      <c r="B36" s="240"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="231"/>
+      <c r="B36" s="231"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="234"/>
       <c r="G36" s="127"/>
       <c r="H36" s="127"/>
       <c r="I36" s="127"/>
@@ -6134,6 +6325,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -6150,11 +6346,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6163,6 +6354,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E4BA36D546265442A08A19E41F1D1BDD" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2e8dd8e6999d741a1c3eb6ca27f596d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d868ab53af1b141f55385f9a789c4e3" ns2:_="">
     <xsd:import namespace="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f"/>
@@ -6294,29 +6500,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611681E-FFDA-4FE6-A588-CE730F72FDC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611681E-FFDA-4FE6-A588-CE730F72FDC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>